--- a/stats_code/data/adventure_data2.xlsx
+++ b/stats_code/data/adventure_data2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xian/Dropbox/proj_CYOA/beh_study/_scripts_github/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xian/Dropbox/proj_CYOA/beh_study/z_paper/1_use/github_share/cyoa/stats_code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE3260D-17AA-4947-AB3F-BEB70599050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB1020-F938-E14E-AAEA-DEC94C3B011D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35880" yWindow="4400" windowWidth="30240" windowHeight="18880" xr2:uid="{3C7A328E-4A82-E648-80EF-E715D510E8D9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{3C7A328E-4A82-E648-80EF-E715D510E8D9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_conds" sheetId="15" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="131">
   <si>
     <t>sem-ef</t>
   </si>
@@ -55,21 +55,9 @@
     <t>prcnt_want</t>
   </si>
   <si>
-    <t>wn</t>
-  </si>
-  <si>
-    <t>rcl</t>
-  </si>
-  <si>
-    <t>inds</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
-    <t>sem-caus</t>
-  </si>
-  <si>
     <t>nghb-ef</t>
   </si>
   <si>
@@ -440,330 +428,6 @@
   </si>
   <si>
     <t>to4_sub3049</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,0,1,0</t>
-  </si>
-  <si>
-    <t>2,7,9,11,13,17,19,21</t>
-  </si>
-  <si>
-    <t>0,0,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,7,9,11,15,18</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,1,0,0,0,0,1,1,0</t>
-  </si>
-  <si>
-    <t>2,7,9,12,14,16,20,22,24,26</t>
-  </si>
-  <si>
-    <t>0,0,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,7,9,12,14,18,20,22</t>
-  </si>
-  <si>
-    <t>1,0,1,1,0,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,1,0,1,0,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,13,16,18,20,23,27,29,32,34,38,40,42</t>
-  </si>
-  <si>
-    <t>1,1,0,1,0,1,0,0,1,1,0,0,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,0,0,0,0,0,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>2,6,10,12,14,17,19,22,26,28,30,33,35,39,42</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,1,1,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,0,1,0</t>
-  </si>
-  <si>
-    <t>2,4,6,8,10,13,16,19,22,24,26,28,30,33,35,39,41,44</t>
-  </si>
-  <si>
-    <t>0,1,0,0,0,0,0,0,0,1,0,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,0,0,0,0,0,1,0,1,0,1,0</t>
-  </si>
-  <si>
-    <t>2,6,10,13,15,17,20,22,24,27,29,31,35,38</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,0,1,0,0,1,1,0,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1,0,1,0,0,0,0,1,0,1,0</t>
-  </si>
-  <si>
-    <t>0,1,1,1,0,0,1,1,1,1,0,1,1,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0,1,0,1,0,0,0,1,0,0</t>
-  </si>
-  <si>
-    <t>2,4,8,11,14,17,21,23,26,28,32,34,36,38</t>
-  </si>
-  <si>
-    <t>0,1,0,0,0,0,0,0,0,0,0,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,1,0,0,0,1,0,0,0,0,1,1,0,0</t>
-  </si>
-  <si>
-    <t>2,6,8,11,14,17,19,21,25,29,31,33,35,38,40,44,46,48</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,1,0,1,1,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,1,0,0,0,0,0,0,0,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,12,14,16,19,22,24,31,38,42,44,47</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>2,7,9,11,13,15,19,21,23</t>
-  </si>
-  <si>
-    <t>0,1,1,1,0,0,1,1,1,0,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0,0,1,1,0,1,0,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,0,1,1,1,0,1,1,0,0,1,1,1,0,0,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,4,8,10,12,15,17,19,22,24,26,28,30,33,35,37,41,44</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,0,1,0,1,0,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,1,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,4,6,8,12,14,16,18,20,23,26,28,30,32</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1,1,0,1,0,1,0,1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,0,0,1,1,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,1,0</t>
-  </si>
-  <si>
-    <t>1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>2,7,9,12,14,18,21</t>
-  </si>
-  <si>
-    <t>0,1,0,0,0,1,1,0,0,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1,1,1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>2,4,8,10,12,14,16,18,28,30,33,35,37</t>
-  </si>
-  <si>
-    <t>1,1,0,0,0,1,1,1,1,0,0,1,0,1,0,0,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,1,1,1,0,0,0,0,0,0,1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,0,1,0,0,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0,1,1,0</t>
-  </si>
-  <si>
-    <t>0,1,0,0,1,1,1,0,1,1,0,1,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,0,1,0,1,1,1,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,8,10,13,16,19,22,26,28,30,32,35,37,41,43,45</t>
-  </si>
-  <si>
-    <t>0,1,0,1,0,1,0,0,1,1,0,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,0,1,0,0,0,0,0,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,12,16,18,20,23,26,28,30,34,36,39,41,45,47,50</t>
-  </si>
-  <si>
-    <t>1,0,1,0,1,1,1,0,0,0,0,0,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,1,1,1,1,0,0,1,0,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,1,1,0,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,1,1,0,0,0,0,0,0,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,1,1,0,0,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,1,0,1,0,1,1,0,1,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,1,0,0,1,0,0,0,0,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,1,0,1,0,0,1,0,0,1,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,1,1,0,0,0,0,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,1,0,1,0,1,0,0,1,1,1,0,1,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,0,0,1,0,1,1,1,1,1,0,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,13,16,18,20,24,26,28,30,32,36,38,40,42,45,47,51,53,55</t>
-  </si>
-  <si>
-    <t>0,1,0,0,1,1,0,0,0,1,0,0,1,0,1,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,1,0,0,1,0,0,1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,8,10,14,16,19,22,24,26,30,32,34,37,39,43,45,47</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,1,0,1,0,1,0,1,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,1,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,12,14,16,19,22,24,31,38,40,44,46,49</t>
-  </si>
-  <si>
-    <t>1,0,0,1,1,0,1,0,1,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,1,1,0,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,1,0,0</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,0,1,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,0,1,1,0,0,0,0,0,0,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1,0,0,1,0,0,0,0,0,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,0,0,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>1,0,0,1,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,0,1,0,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,0,1,0,1,1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,0,0,0,1,0,1,1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
   </si>
   <si>
     <t>ID</t>
@@ -1121,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A7EB6-860A-1144-8B39-C1E000CAA824}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1133,21 +797,21 @@
     <col min="2" max="2" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1156,25 +820,22 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B33" si="0">RIGHT(A2,4)</f>
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>0.45833333333333331</v>
@@ -1189,25 +850,22 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="H2">
-        <v>8.3000000000000004E-2</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>0.72</v>
@@ -1222,25 +880,22 @@
         <v>-0.28199999999999997</v>
       </c>
       <c r="H3">
-        <v>-7.4999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>0.84</v>
@@ -1255,25 +910,22 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="H4">
-        <v>0.32</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>0.50943396226415094</v>
@@ -1288,25 +940,22 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="H5">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>0.42307692307692307</v>
@@ -1321,25 +970,22 @@
         <v>0.09</v>
       </c>
       <c r="H6">
-        <v>-0.191</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
         <v>0.1764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>0.53333333333333333</v>
@@ -1354,25 +1000,22 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="H7">
-        <v>0.23100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>0.81481481481481477</v>
@@ -1387,25 +1030,22 @@
         <v>0.221</v>
       </c>
       <c r="H8">
-        <v>0.13100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>0.54545454545454541</v>
@@ -1420,25 +1060,22 @@
         <v>0.311</v>
       </c>
       <c r="H9">
-        <v>0.29399999999999998</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>0.39215686274509798</v>
@@ -1453,25 +1090,22 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="H10">
-        <v>0.35399999999999998</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
         <v>4.5454545454545463E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>1012</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>0.4</v>
@@ -1486,25 +1120,22 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="H11">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>0.56521739130434778</v>
@@ -1519,25 +1150,22 @@
         <v>0.115</v>
       </c>
       <c r="H12">
-        <v>0.32400000000000001</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
         <v>0.1081081081081081</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>0.47619047619047622</v>
@@ -1552,25 +1180,22 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="H13">
-        <v>0.27800000000000002</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
         <v>5.8823529411764712E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>1015</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>0.59523809523809523</v>
@@ -1585,25 +1210,22 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="H14">
-        <v>0.29899999999999999</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>0.57692307692307687</v>
@@ -1618,25 +1240,22 @@
         <v>-0.26400000000000001</v>
       </c>
       <c r="H15">
-        <v>0.30499999999999999</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>1018</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>0.6875</v>
@@ -1651,25 +1270,22 @@
         <v>0.222</v>
       </c>
       <c r="H16">
-        <v>0.29899999999999999</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
         <v>4.0816326530612242E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>1019</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>0.63043478260869568</v>
@@ -1684,25 +1300,22 @@
         <v>0.219</v>
       </c>
       <c r="H17">
-        <v>0.17899999999999999</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
         <v>6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -1717,25 +1330,22 @@
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="H18">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19">
         <v>0.30508474576271188</v>
@@ -1750,25 +1360,22 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="H19">
-        <v>0.247</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
         <v>0.1875</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D20">
         <v>0.66666666666666663</v>
@@ -1783,25 +1390,22 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="H20">
-        <v>0.30199999999999999</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>0.68</v>
@@ -1816,25 +1420,22 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="H21">
-        <v>0.17599999999999999</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>0.53061224489795922</v>
@@ -1849,25 +1450,22 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="H22">
-        <v>0.192</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>1027</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>0.29411764705882348</v>
@@ -1882,25 +1480,22 @@
         <v>0.252</v>
       </c>
       <c r="H23">
-        <v>0.33100000000000002</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>0.48571428571428571</v>
@@ -1915,25 +1510,22 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="H24">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25">
         <v>0.6</v>
@@ -1948,25 +1540,22 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="H25">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
         <v>4.7619047619047623E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>0.54545454545454541</v>
@@ -1981,25 +1570,22 @@
         <v>0.184</v>
       </c>
       <c r="H26">
-        <v>0.29399999999999998</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>0.59090909090909094</v>
@@ -2014,25 +1600,22 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="H27">
-        <v>0.29399999999999998</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>0.62962962962962965</v>
@@ -2047,25 +1630,22 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H28">
-        <v>0.13100000000000001</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
-      </c>
-      <c r="J28">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>0.38095238095238088</v>
@@ -2080,25 +1660,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H29">
-        <v>0.29899999999999999</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30">
         <v>0.23529411764705879</v>
@@ -2113,25 +1690,22 @@
         <v>0.313</v>
       </c>
       <c r="H30">
-        <v>0.35399999999999998</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31">
         <v>0.20754716981132079</v>
@@ -2146,25 +1720,22 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H31">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>0.55000000000000004</v>
@@ -2179,25 +1750,22 @@
         <v>0.47599999999999998</v>
       </c>
       <c r="H32">
-        <v>0.192</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32">
         <v>0.1081081081081081</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>0.33333333333333331</v>
@@ -2212,25 +1780,22 @@
         <v>0.12</v>
       </c>
       <c r="H33">
-        <v>0.29899999999999999</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
         <v>5.8823529411764712E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B65" si="1">RIGHT(A34,4)</f>
         <v>2012</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>0.66666666666666663</v>
@@ -2245,25 +1810,22 @@
         <v>0.497</v>
       </c>
       <c r="H34">
-        <v>0.23100000000000001</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
         <v>4.3478260869565223E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>0.5</v>
@@ -2278,25 +1840,22 @@
         <v>-0.316</v>
       </c>
       <c r="H35">
-        <v>-0.191</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>0.5</v>
@@ -2311,25 +1870,22 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="H36">
-        <v>0.27800000000000002</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36">
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>0.50980392156862742</v>
@@ -2344,25 +1900,22 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="H37">
-        <v>0.33100000000000002</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>0.47457627118644069</v>
@@ -2377,25 +1930,22 @@
         <v>0.25</v>
       </c>
       <c r="H38">
-        <v>0.247</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>3</v>
-      </c>
-      <c r="J38">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>0.46938775510204078</v>
@@ -2410,25 +1960,22 @@
         <v>0.126</v>
       </c>
       <c r="H39">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>0.3125</v>
@@ -2443,25 +1990,22 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="H40">
-        <v>8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>0.69230769230769229</v>
@@ -2476,25 +2020,22 @@
         <v>-0.184</v>
       </c>
       <c r="H41">
-        <v>-0.191</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>0.34615384615384609</v>
@@ -2509,25 +2050,22 @@
         <v>-0.13900000000000001</v>
       </c>
       <c r="H42">
-        <v>0.30499999999999999</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>2</v>
-      </c>
-      <c r="J42">
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43">
         <v>0.6</v>
@@ -2542,25 +2080,22 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="H43">
-        <v>-7.4999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>0.40677966101694918</v>
@@ -2575,25 +2110,22 @@
         <v>0.156</v>
       </c>
       <c r="H44">
-        <v>0.247</v>
+        <v>6</v>
       </c>
       <c r="I44">
-        <v>6</v>
-      </c>
-      <c r="J44">
         <v>0.13043478260869559</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45">
         <v>0.45652173913043481</v>
@@ -2608,25 +2140,22 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="H45">
-        <v>0.32400000000000001</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46">
         <v>0.38775510204081631</v>
@@ -2641,25 +2170,22 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="H46">
-        <v>0.192</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>0.52173913043478259</v>
@@ -2674,25 +2200,22 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H47">
-        <v>0.32400000000000001</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48">
         <v>0.56000000000000005</v>
@@ -2707,25 +2230,22 @@
         <v>0.127</v>
       </c>
       <c r="H48">
-        <v>-7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>0.40740740740740738</v>
@@ -2740,25 +2260,22 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="H49">
-        <v>0.30199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50">
         <v>0.1764705882352941</v>
@@ -2773,25 +2290,22 @@
         <v>0.216</v>
       </c>
       <c r="H50">
-        <v>0.35399999999999998</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
         <v>2037</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51">
         <v>0.4</v>
@@ -2806,25 +2320,22 @@
         <v>-0.129</v>
       </c>
       <c r="H51">
-        <v>-7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
         <v>2038</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <v>0.58333333333333337</v>
@@ -2839,25 +2350,22 @@
         <v>0.114</v>
       </c>
       <c r="H52">
-        <v>0.29899999999999999</v>
+        <v>7</v>
       </c>
       <c r="I52">
-        <v>7</v>
-      </c>
-      <c r="J52">
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
         <v>2039</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53">
         <v>0.62962962962962965</v>
@@ -2872,25 +2380,22 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="H53">
-        <v>0.13100000000000001</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>0.33333333333333331</v>
@@ -2905,25 +2410,22 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="H54">
-        <v>8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
         <v>2041</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55">
         <v>0.61538461538461542</v>
@@ -2938,25 +2440,22 @@
         <v>-0.188</v>
       </c>
       <c r="H55">
-        <v>0.30499999999999999</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>7</v>
-      </c>
-      <c r="J55">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
         <v>2042</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56">
         <v>0.78431372549019607</v>
@@ -2971,25 +2470,22 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="H56">
-        <v>0.33100000000000002</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>4</v>
-      </c>
-      <c r="J56">
         <v>7.8431372549019607E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
         <v>2043</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57">
         <v>0.25925925925925919</v>
@@ -3004,25 +2500,22 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="H57">
-        <v>0.30199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58">
         <v>0.40476190476190482</v>
@@ -3037,25 +2530,22 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="H58">
-        <v>0.29899999999999999</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
         <v>2046</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>0.43478260869565222</v>
@@ -3070,25 +2560,22 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H59">
-        <v>0.17899999999999999</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>3</v>
-      </c>
-      <c r="J59">
         <v>6.8181818181818177E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
         <v>2047</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60">
         <v>0.79166666666666663</v>
@@ -3103,25 +2590,22 @@
         <v>-0.22800000000000001</v>
       </c>
       <c r="H60">
-        <v>0.29899999999999999</v>
+        <v>11</v>
       </c>
       <c r="I60">
-        <v>11</v>
-      </c>
-      <c r="J60">
         <v>0.14473684210526319</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61">
         <v>0.76</v>
@@ -3136,25 +2620,22 @@
         <v>0.3</v>
       </c>
       <c r="H61">
-        <v>0.17599999999999999</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
         <v>2049</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62">
         <v>0.5</v>
@@ -3169,25 +2650,22 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.27800000000000002</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>3</v>
-      </c>
-      <c r="J62">
         <v>0.1153846153846154</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
         <v>2051</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63">
         <v>0.60869565217391308</v>
@@ -3202,25 +2680,22 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="H63">
-        <v>0.17899999999999999</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>5</v>
-      </c>
-      <c r="J63">
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
         <v>2052</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <v>0.44</v>
@@ -3235,25 +2710,22 @@
         <v>0.215</v>
       </c>
       <c r="H64">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
         <v>2053</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65">
         <v>0.65</v>
@@ -3268,25 +2740,22 @@
         <v>0.215</v>
       </c>
       <c r="H65">
-        <v>0.192</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>4</v>
-      </c>
-      <c r="J65">
         <v>0.1081081081081081</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B97" si="2">RIGHT(A66,4)</f>
         <v>2056</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66">
         <v>0.8</v>
@@ -3301,25 +2770,22 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="H66">
-        <v>0.17599999999999999</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
         <v>2057</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D67">
         <v>0.56666666666666665</v>
@@ -3334,25 +2800,22 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="H67">
-        <v>0.23100000000000001</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
         <v>2058</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>0.54285714285714282</v>
@@ -3367,25 +2830,22 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="H68">
-        <v>0.09</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
-      </c>
-      <c r="J68">
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="2"/>
         <v>3001</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D69">
         <v>0.64</v>
@@ -3400,25 +2860,22 @@
         <v>-0.26400000000000001</v>
       </c>
       <c r="H69">
-        <v>-7.4999999999999997E-2</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>4</v>
-      </c>
-      <c r="J69">
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
         <v>3002</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D70">
         <v>0.76</v>
@@ -3433,25 +2890,22 @@
         <v>0.432</v>
       </c>
       <c r="H70">
-        <v>0.17599999999999999</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
         <v>3003</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D71">
         <v>0.29411764705882348</v>
@@ -3466,25 +2920,22 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H71">
-        <v>0.33100000000000002</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="2"/>
         <v>3004</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D72">
         <v>0.25490196078431371</v>
@@ -3499,25 +2950,22 @@
         <v>0.108</v>
       </c>
       <c r="H72">
-        <v>0.35399999999999998</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
         <v>0.04</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="2"/>
         <v>3005</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D73">
         <v>0.88461538461538458</v>
@@ -3532,25 +2980,22 @@
         <v>0.127</v>
       </c>
       <c r="H73">
-        <v>-0.191</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="2"/>
         <v>3006</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D74">
         <v>0.48979591836734693</v>
@@ -3565,25 +3010,22 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="H74">
-        <v>0.192</v>
+        <v>6</v>
       </c>
       <c r="I74">
-        <v>6</v>
-      </c>
-      <c r="J74">
         <v>0.1764705882352941</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="2"/>
         <v>3007</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>0.2857142857142857</v>
@@ -3598,25 +3040,22 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H75">
-        <v>0.192</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75">
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="2"/>
         <v>3008</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D76">
         <v>0.5</v>
@@ -3631,25 +3070,22 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="H76">
-        <v>0.32400000000000001</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>3</v>
-      </c>
-      <c r="J76">
         <v>5.7692307692307702E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="2"/>
         <v>3009</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>0.83673469387755106</v>
@@ -3664,25 +3100,22 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H77">
-        <v>0.192</v>
+        <v>7</v>
       </c>
       <c r="I77">
-        <v>7</v>
-      </c>
-      <c r="J77">
         <v>0.1521739130434783</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="2"/>
         <v>3010</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>0.2407407407407407</v>
@@ -3697,25 +3130,22 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="H78">
-        <v>0.30199999999999999</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>5</v>
-      </c>
-      <c r="J78">
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="2"/>
         <v>3011</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>0.56603773584905659</v>
@@ -3730,25 +3160,22 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="H79">
-        <v>0.111</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
-      </c>
-      <c r="J79">
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="2"/>
         <v>3012</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D80">
         <v>0.52500000000000002</v>
@@ -3763,25 +3190,22 @@
         <v>0.109</v>
       </c>
       <c r="H80">
-        <v>0.192</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>3</v>
-      </c>
-      <c r="J80">
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="2"/>
         <v>3013</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D81">
         <v>0.65384615384615385</v>
@@ -3796,25 +3220,22 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H81">
-        <v>-0.191</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="2"/>
         <v>3014</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D82">
         <v>0.67346938775510201</v>
@@ -3829,25 +3250,22 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H82">
-        <v>0.192</v>
+        <v>5</v>
       </c>
       <c r="I82">
-        <v>5</v>
-      </c>
-      <c r="J82">
         <v>0.125</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="2"/>
         <v>3015</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D83">
         <v>0.41509433962264147</v>
@@ -3862,25 +3280,22 @@
         <v>0.11</v>
       </c>
       <c r="H83">
-        <v>0.111</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="2"/>
         <v>3016</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D84">
         <v>0.45652173913043481</v>
@@ -3895,25 +3310,22 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="H84">
-        <v>0.17899999999999999</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84">
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="2"/>
         <v>3017</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D85">
         <v>0.32203389830508472</v>
@@ -3928,25 +3340,22 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H85">
-        <v>0.247</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85">
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
         <v>3018</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D86">
         <v>0.52173913043478259</v>
@@ -3961,25 +3370,22 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H86">
-        <v>0.32400000000000001</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>4</v>
-      </c>
-      <c r="J86">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="2"/>
         <v>3019</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D87">
         <v>0.25</v>
@@ -3994,25 +3400,22 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H87">
-        <v>0.30499999999999999</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="2"/>
         <v>3020</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D88">
         <v>0.5714285714285714</v>
@@ -4027,25 +3430,22 @@
         <v>0.18</v>
       </c>
       <c r="H88">
-        <v>0.192</v>
+        <v>7</v>
       </c>
       <c r="I88">
-        <v>7</v>
-      </c>
-      <c r="J88">
         <v>0.1372549019607843</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="2"/>
         <v>3021</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D89">
         <v>0.42307692307692307</v>
@@ -4060,25 +3460,22 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="H89">
-        <v>0.30499999999999999</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="2"/>
         <v>3022</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D90">
         <v>0.26190476190476192</v>
@@ -4093,25 +3490,22 @@
         <v>-0.193</v>
       </c>
       <c r="H90">
-        <v>0.27800000000000002</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90">
         <v>0.125</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
         <v>3023</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D91">
         <v>0.3559322033898305</v>
@@ -4126,25 +3520,22 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="H91">
-        <v>0.247</v>
+        <v>5</v>
       </c>
       <c r="I91">
-        <v>5</v>
-      </c>
-      <c r="J91">
         <v>0.13157894736842099</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="2"/>
         <v>3024</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D92">
         <v>0.55555555555555558</v>
@@ -4159,25 +3550,22 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="H92">
-        <v>0.30199999999999999</v>
+        <v>5</v>
       </c>
       <c r="I92">
-        <v>5</v>
-      </c>
-      <c r="J92">
         <v>0.1136363636363636</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="2"/>
         <v>3025</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D93">
         <v>0.59259259259259256</v>
@@ -4192,25 +3580,22 @@
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="H93">
-        <v>0.13100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="2"/>
         <v>3026</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D94">
         <v>0.26190476190476192</v>
@@ -4225,25 +3610,22 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H94">
-        <v>0.29899999999999999</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
-      </c>
-      <c r="J94">
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="2"/>
         <v>3027</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D95">
         <v>0.27083333333333331</v>
@@ -4258,25 +3640,22 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="H95">
-        <v>8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="2"/>
         <v>3028</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D96">
         <v>0.48</v>
@@ -4291,25 +3670,22 @@
         <v>-0.127</v>
       </c>
       <c r="H96">
-        <v>-7.4999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="2"/>
         <v>3029</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D97">
         <v>0.63636363636363635</v>
@@ -4324,25 +3700,22 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="H97">
-        <v>0.29399999999999998</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" ref="B98:B117" si="3">RIGHT(A98,4)</f>
         <v>3030</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D98">
         <v>0.32608695652173908</v>
@@ -4357,25 +3730,22 @@
         <v>7.8E-2</v>
       </c>
       <c r="H98">
-        <v>0.17899999999999999</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="3"/>
         <v>3031</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D99">
         <v>0.2857142857142857</v>
@@ -4390,25 +3760,22 @@
         <v>0.48</v>
       </c>
       <c r="H99">
-        <v>0.29899999999999999</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
         <v>0.05</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="3"/>
         <v>3032</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D100">
         <v>0.35294117647058831</v>
@@ -4423,25 +3790,22 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="H100">
-        <v>0.33100000000000002</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>2</v>
-      </c>
-      <c r="J100">
         <v>0.10526315789473679</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="3"/>
         <v>3033</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D101">
         <v>0.6</v>
@@ -4456,25 +3820,22 @@
         <v>0.109</v>
       </c>
       <c r="H101">
-        <v>0.32</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>2</v>
-      </c>
-      <c r="J101">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="3"/>
         <v>3034</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D102">
         <v>0.19607843137254899</v>
@@ -4489,25 +3850,22 @@
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H102">
-        <v>0.35399999999999998</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="3"/>
         <v>3035</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D103">
         <v>0.48148148148148151</v>
@@ -4522,25 +3880,22 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="H103">
-        <v>0.13100000000000001</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="3"/>
         <v>3036</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D104">
         <v>0.52500000000000002</v>
@@ -4555,25 +3910,22 @@
         <v>-1.9E-2</v>
       </c>
       <c r="H104">
-        <v>0.192</v>
+        <v>6</v>
       </c>
       <c r="I104">
-        <v>6</v>
-      </c>
-      <c r="J104">
         <v>0.24</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="3"/>
         <v>3037</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D105">
         <v>0.59090909090909094</v>
@@ -4588,25 +3940,22 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="H105">
-        <v>0.29399999999999998</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="3"/>
         <v>3038</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D106">
         <v>0.51428571428571423</v>
@@ -4621,25 +3970,22 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="H106">
-        <v>0.09</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="3"/>
         <v>3039</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D107">
         <v>0.25</v>
@@ -4654,25 +4000,22 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="H107">
-        <v>0.29899999999999999</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="3"/>
         <v>3040</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D108">
         <v>0.47619047619047622</v>
@@ -4687,25 +4030,22 @@
         <v>-0.20300000000000001</v>
       </c>
       <c r="H108">
-        <v>0.27800000000000002</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>5</v>
-      </c>
-      <c r="J108">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="3"/>
         <v>3041</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D109">
         <v>0.76666666666666672</v>
@@ -4720,25 +4060,22 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="H109">
-        <v>0.23100000000000001</v>
+        <v>4</v>
       </c>
       <c r="I109">
-        <v>4</v>
-      </c>
-      <c r="J109">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="3"/>
         <v>3042</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D110">
         <v>0.41666666666666669</v>
@@ -4753,25 +4090,22 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="H110">
-        <v>8.3000000000000004E-2</v>
+        <v>6</v>
       </c>
       <c r="I110">
-        <v>6</v>
-      </c>
-      <c r="J110">
         <v>0.13636363636363641</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="3"/>
         <v>3043</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D111">
         <v>0.625</v>
@@ -4786,25 +4120,22 @@
         <v>0.125</v>
       </c>
       <c r="H111">
-        <v>0.29899999999999999</v>
+        <v>7</v>
       </c>
       <c r="I111">
-        <v>7</v>
-      </c>
-      <c r="J111">
         <v>0.1228070175438596</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="3"/>
         <v>3044</v>
       </c>
       <c r="C112" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D112">
         <v>0.64</v>
@@ -4819,25 +4150,22 @@
         <v>-0.13200000000000001</v>
       </c>
       <c r="H112">
-        <v>-7.4999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112">
         <v>4.3478260869565223E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="3"/>
         <v>3045</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D113">
         <v>0.46666666666666667</v>
@@ -4852,25 +4180,22 @@
         <v>0.15</v>
       </c>
       <c r="H113">
-        <v>0.23100000000000001</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="3"/>
         <v>3046</v>
       </c>
       <c r="C114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D114">
         <v>0.25714285714285712</v>
@@ -4885,25 +4210,22 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="H114">
-        <v>0.09</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
-      </c>
-      <c r="J114">
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="3"/>
         <v>3047</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D115">
         <v>0.36</v>
@@ -4918,25 +4240,22 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="H115">
-        <v>0.17599999999999999</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
-      </c>
-      <c r="J115">
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="3"/>
         <v>3048</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D116">
         <v>0.58695652173913049</v>
@@ -4951,25 +4270,22 @@
         <v>0.222</v>
       </c>
       <c r="H116">
-        <v>0.32400000000000001</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
-      </c>
-      <c r="J116">
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="3"/>
         <v>3049</v>
       </c>
       <c r="C117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D117">
         <v>0.52</v>
@@ -4984,17 +4300,14 @@
         <v>0.53500000000000003</v>
       </c>
       <c r="H117">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117">
         <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J117">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I117">
     <sortCondition ref="B80:B117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5003,23 +4316,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4120BB9-4339-ED4B-9C11-0CDD98681F3B}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -5027,16 +4340,13 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0.59699999999999998</v>
@@ -5047,16 +4357,13 @@
       <c r="E2">
         <v>0.40100000000000002</v>
       </c>
-      <c r="F2">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>0.01</v>
@@ -5067,16 +4374,13 @@
       <c r="E3">
         <v>-0.28199999999999997</v>
       </c>
-      <c r="F3">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>0.16800000000000001</v>
@@ -5087,16 +4391,13 @@
       <c r="E4">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F4">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0.59399999999999997</v>
@@ -5107,16 +4408,13 @@
       <c r="E5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F5">
-        <v>0.111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0.51600000000000001</v>
@@ -5127,16 +4425,13 @@
       <c r="E6">
         <v>0.09</v>
       </c>
-      <c r="F6">
-        <v>-0.191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>0.39700000000000002</v>
@@ -5147,16 +4442,13 @@
       <c r="E7">
         <v>0.31900000000000001</v>
       </c>
-      <c r="F7">
-        <v>0.23100000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>0.36899999999999999</v>
@@ -5167,16 +4459,13 @@
       <c r="E8">
         <v>0.221</v>
       </c>
-      <c r="F8">
-        <v>0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>-7.6999999999999999E-2</v>
@@ -5187,16 +4476,13 @@
       <c r="E9">
         <v>0.311</v>
       </c>
-      <c r="F9">
-        <v>0.29399999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>9.4E-2</v>
@@ -5207,16 +4493,13 @@
       <c r="E10">
         <v>0.26700000000000002</v>
       </c>
-      <c r="F10">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>0.35599999999999998</v>
@@ -5227,16 +4510,13 @@
       <c r="E11">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F11">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>0.38700000000000001</v>
@@ -5247,16 +4527,13 @@
       <c r="E12">
         <v>0.115</v>
       </c>
-      <c r="F12">
-        <v>0.32400000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>0.46200000000000002</v>
@@ -5267,16 +4544,13 @@
       <c r="E13">
         <v>0.49399999999999999</v>
       </c>
-      <c r="F13">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>0.27100000000000002</v>
@@ -5287,16 +4561,13 @@
       <c r="E14">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="F14">
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>0.73899999999999999</v>
@@ -5307,16 +4578,13 @@
       <c r="E15">
         <v>-0.26400000000000001</v>
       </c>
-      <c r="F15">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>0.378</v>
@@ -5327,16 +4595,13 @@
       <c r="E16">
         <v>0.222</v>
       </c>
-      <c r="F16">
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>9.6000000000000002E-2</v>
@@ -5347,16 +4612,13 @@
       <c r="E17">
         <v>0.219</v>
       </c>
-      <c r="F17">
-        <v>0.17899999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>8.0000000000000002E-3</v>
@@ -5367,16 +4629,13 @@
       <c r="E18">
         <v>-4.2000000000000003E-2</v>
       </c>
-      <c r="F18">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>0.128</v>
@@ -5387,16 +4646,13 @@
       <c r="E19">
         <v>0.16300000000000001</v>
       </c>
-      <c r="F19">
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>0.19400000000000001</v>
@@ -5407,16 +4663,13 @@
       <c r="E20">
         <v>0.32200000000000001</v>
       </c>
-      <c r="F20">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>0.121</v>
@@ -5427,16 +4680,13 @@
       <c r="E21">
         <v>0.36699999999999999</v>
       </c>
-      <c r="F21">
-        <v>0.17599999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>0.109</v>
@@ -5447,16 +4697,13 @@
       <c r="E22">
         <v>0.27200000000000002</v>
       </c>
-      <c r="F22">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>0.28999999999999998</v>
@@ -5466,9 +4713,6 @@
       </c>
       <c r="E23">
         <v>0.252</v>
-      </c>
-      <c r="F23">
-        <v>0.33100000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -5478,19 +4722,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06202F0C-D28B-CE48-9801-8E91D2A80670}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="29" max="29" width="18" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5507,28 +4751,16 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>0.63200000000000001</v>
@@ -5543,24 +4775,12 @@
         <v>0.184</v>
       </c>
       <c r="F2">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G2">
         <v>0.63600000000000001</v>
       </c>
-      <c r="H2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>-0.70699999999999996</v>
@@ -5575,24 +4795,12 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="F3">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G3">
         <v>-0.17599999999999999</v>
       </c>
-      <c r="H3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0.24299999999999999</v>
@@ -5607,27 +4815,15 @@
         <v>0.313</v>
       </c>
       <c r="F4">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="G4">
         <v>-0.29799999999999999</v>
       </c>
-      <c r="H4" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -5639,24 +4835,12 @@
         <v>0.216</v>
       </c>
       <c r="F5">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="G5">
         <v>0.188</v>
       </c>
-      <c r="H5" t="s">
-        <v>240</v>
-      </c>
-      <c r="I5" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>0.251</v>
@@ -5671,24 +4855,12 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="F6">
-        <v>0.09</v>
-      </c>
-      <c r="G6">
         <v>0.19</v>
       </c>
-      <c r="H6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" t="s">
-        <v>225</v>
-      </c>
-      <c r="J6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7">
         <v>-9.0999999999999998E-2</v>
@@ -5703,24 +4875,12 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="F7">
-        <v>0.09</v>
-      </c>
-      <c r="G7">
         <v>0.35199999999999998</v>
       </c>
-      <c r="H7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>-0.378</v>
@@ -5735,24 +4895,12 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="F8">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="G8">
         <v>0.193</v>
       </c>
-      <c r="H8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>-0.2</v>
@@ -5767,24 +4915,12 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="F9">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="G9">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="H9" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>-0.189</v>
@@ -5799,24 +4935,12 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="F10">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G10">
         <v>6.3E-2</v>
       </c>
-      <c r="H10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>-0.14899999999999999</v>
@@ -5831,24 +4955,12 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G11">
         <v>0.161</v>
       </c>
-      <c r="H11" t="s">
-        <v>173</v>
-      </c>
-      <c r="I11" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B12">
         <v>-9.0999999999999998E-2</v>
@@ -5863,24 +4975,12 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F12">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G12">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="H12" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12" t="s">
-        <v>182</v>
-      </c>
-      <c r="J12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13">
         <v>-0.22800000000000001</v>
@@ -5895,24 +4995,12 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="F13">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G13">
         <v>0.442</v>
       </c>
-      <c r="H13" t="s">
-        <v>156</v>
-      </c>
-      <c r="I13" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>-0.17499999999999999</v>
@@ -5927,24 +5015,12 @@
         <v>-0.13900000000000001</v>
       </c>
       <c r="F14">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="G14">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I14" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>0.433</v>
@@ -5959,24 +5035,12 @@
         <v>-0.188</v>
       </c>
       <c r="F15">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="G15">
         <v>0.24299999999999999</v>
       </c>
-      <c r="H15" t="s">
-        <v>232</v>
-      </c>
-      <c r="I15" t="s">
-        <v>233</v>
-      </c>
-      <c r="J15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>-0.35699999999999998</v>
@@ -5991,24 +5055,12 @@
         <v>0.12</v>
       </c>
       <c r="F16">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G16">
         <v>0.45200000000000001</v>
       </c>
-      <c r="H16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B17">
         <v>0.17499999999999999</v>
@@ -6023,24 +5075,12 @@
         <v>0.114</v>
       </c>
       <c r="F17">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G17">
         <v>-3.9E-2</v>
       </c>
-      <c r="H17" t="s">
-        <v>207</v>
-      </c>
-      <c r="I17" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>7.9000000000000001E-2</v>
@@ -6055,24 +5095,12 @@
         <v>-0.22800000000000001</v>
       </c>
       <c r="F18">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G18">
         <v>0.46700000000000003</v>
       </c>
-      <c r="H18" t="s">
-        <v>201</v>
-      </c>
-      <c r="I18" t="s">
-        <v>202</v>
-      </c>
-      <c r="J18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6087,24 +5115,12 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="F19">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G19">
         <v>0.55900000000000005</v>
       </c>
-      <c r="H19" t="s">
-        <v>189</v>
-      </c>
-      <c r="I19" t="s">
-        <v>190</v>
-      </c>
-      <c r="J19" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>-0.14899999999999999</v>
@@ -6119,24 +5135,12 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="F20">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G20">
         <v>0.60699999999999998</v>
       </c>
-      <c r="H20" t="s">
-        <v>175</v>
-      </c>
-      <c r="I20" t="s">
-        <v>176</v>
-      </c>
-      <c r="J20" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>-0.443</v>
@@ -6151,24 +5155,12 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="F21">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G21">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="H21" t="s">
-        <v>147</v>
-      </c>
-      <c r="I21" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -6183,24 +5175,12 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="F22">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G22">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I22" t="s">
-        <v>192</v>
-      </c>
-      <c r="J22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>0.158</v>
@@ -6215,24 +5195,12 @@
         <v>0.47599999999999998</v>
       </c>
       <c r="F23">
-        <v>0.192</v>
-      </c>
-      <c r="G23">
         <v>-0.108</v>
       </c>
-      <c r="H23" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>-7.0999999999999994E-2</v>
@@ -6247,24 +5215,12 @@
         <v>0.215</v>
       </c>
       <c r="F24">
-        <v>0.192</v>
-      </c>
-      <c r="G24">
         <v>0.32500000000000001</v>
       </c>
-      <c r="H24" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24" t="s">
-        <v>187</v>
-      </c>
-      <c r="J24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B25">
         <v>0.22</v>
@@ -6279,24 +5235,12 @@
         <v>0.25</v>
       </c>
       <c r="F25">
-        <v>0.247</v>
-      </c>
-      <c r="G25">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H25" t="s">
-        <v>216</v>
-      </c>
-      <c r="I25" t="s">
-        <v>217</v>
-      </c>
-      <c r="J25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>0.20499999999999999</v>
@@ -6311,24 +5255,12 @@
         <v>0.156</v>
       </c>
       <c r="F26">
-        <v>0.247</v>
-      </c>
-      <c r="G26">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I26" t="s">
-        <v>214</v>
-      </c>
-      <c r="J26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>5.5E-2</v>
@@ -6343,24 +5275,12 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="F27">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="G27">
         <v>0.57199999999999995</v>
       </c>
-      <c r="H27" t="s">
-        <v>198</v>
-      </c>
-      <c r="I27" t="s">
-        <v>199</v>
-      </c>
-      <c r="J27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B28">
         <v>0.193</v>
@@ -6375,24 +5295,12 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="F28">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="G28">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="H28" t="s">
-        <v>211</v>
-      </c>
-      <c r="I28" t="s">
-        <v>212</v>
-      </c>
-      <c r="J28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>0.41699999999999998</v>
@@ -6407,24 +5315,12 @@
         <v>0.3</v>
       </c>
       <c r="F29">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="G29">
         <v>0.183</v>
       </c>
-      <c r="H29" t="s">
-        <v>230</v>
-      </c>
-      <c r="I29" t="s">
-        <v>231</v>
-      </c>
-      <c r="J29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B30">
         <v>-9.0999999999999998E-2</v>
@@ -6439,24 +5335,12 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="F30">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" t="s">
-        <v>184</v>
-      </c>
-      <c r="J30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31">
         <v>0.03</v>
@@ -6471,24 +5355,12 @@
         <v>0.126</v>
       </c>
       <c r="F31">
-        <v>0.192</v>
-      </c>
-      <c r="G31">
         <v>0.60399999999999998</v>
       </c>
-      <c r="H31" t="s">
-        <v>195</v>
-      </c>
-      <c r="I31" t="s">
-        <v>196</v>
-      </c>
-      <c r="J31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B32">
         <v>0.182</v>
@@ -6503,24 +5375,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="F32">
-        <v>0.192</v>
-      </c>
-      <c r="G32">
         <v>0.14399999999999999</v>
       </c>
-      <c r="H32" t="s">
-        <v>209</v>
-      </c>
-      <c r="I32" t="s">
-        <v>210</v>
-      </c>
-      <c r="J32" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>-0.17399999999999999</v>
@@ -6535,24 +5395,12 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="F33">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="G33">
         <v>0.63900000000000001</v>
       </c>
-      <c r="H33" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" t="s">
-        <v>168</v>
-      </c>
-      <c r="J33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B34">
         <v>0.745</v>
@@ -6567,24 +5415,12 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="F34">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="G34">
         <v>0.54500000000000004</v>
       </c>
-      <c r="H34" t="s">
-        <v>238</v>
-      </c>
-      <c r="I34" t="s">
-        <v>239</v>
-      </c>
-      <c r="J34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0.14899999999999999</v>
@@ -6599,24 +5435,12 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="F35">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="G35">
         <v>0.54600000000000004</v>
       </c>
-      <c r="H35" t="s">
-        <v>203</v>
-      </c>
-      <c r="I35" t="s">
-        <v>204</v>
-      </c>
-      <c r="J35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>-0.5</v>
@@ -6631,24 +5455,12 @@
         <v>0.127</v>
       </c>
       <c r="F36">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="G36">
         <v>0.20399999999999999</v>
       </c>
-      <c r="H36" t="s">
-        <v>134</v>
-      </c>
-      <c r="I36" t="s">
-        <v>146</v>
-      </c>
-      <c r="J36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0.33300000000000002</v>
@@ -6663,24 +5475,12 @@
         <v>-0.129</v>
       </c>
       <c r="F37">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="G37">
         <v>0.27100000000000002</v>
       </c>
-      <c r="H37" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" t="s">
-        <v>227</v>
-      </c>
-      <c r="J37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>-0.77500000000000002</v>
@@ -6695,24 +5495,12 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="F38">
-        <v>0.32</v>
-      </c>
-      <c r="G38">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I38" t="s">
-        <v>135</v>
-      </c>
-      <c r="J38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>0.25800000000000001</v>
@@ -6727,24 +5515,12 @@
         <v>0.215</v>
       </c>
       <c r="F39">
-        <v>0.32</v>
-      </c>
-      <c r="G39">
         <v>0.66600000000000004</v>
       </c>
-      <c r="H39" t="s">
-        <v>226</v>
-      </c>
-      <c r="I39" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>0.25</v>
@@ -6759,24 +5535,12 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="F40">
-        <v>0.111</v>
-      </c>
-      <c r="G40">
         <v>-1.4E-2</v>
       </c>
-      <c r="H40" t="s">
-        <v>221</v>
-      </c>
-      <c r="I40" t="s">
-        <v>222</v>
-      </c>
-      <c r="J40" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>-0.6</v>
@@ -6791,24 +5555,12 @@
         <v>-0.316</v>
       </c>
       <c r="F41">
-        <v>-0.191</v>
-      </c>
-      <c r="G41">
         <v>0.23799999999999999</v>
       </c>
-      <c r="H41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -6823,24 +5575,12 @@
         <v>-0.184</v>
       </c>
       <c r="F42">
-        <v>-0.191</v>
-      </c>
-      <c r="G42">
         <v>0.41</v>
       </c>
-      <c r="H42" t="s">
-        <v>193</v>
-      </c>
-      <c r="I42" t="s">
-        <v>194</v>
-      </c>
-      <c r="J42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>0.40799999999999997</v>
@@ -6855,24 +5595,12 @@
         <v>0.497</v>
       </c>
       <c r="F43">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G43">
         <v>0.48</v>
       </c>
-      <c r="H43" t="s">
-        <v>228</v>
-      </c>
-      <c r="I43" t="s">
-        <v>229</v>
-      </c>
-      <c r="J43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>-0.66700000000000004</v>
@@ -6887,24 +5615,12 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="F44">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G44">
         <v>-0.3</v>
       </c>
-      <c r="H44" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" t="s">
-        <v>141</v>
-      </c>
-      <c r="J44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0.59799999999999998</v>
@@ -6919,24 +5635,12 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="F45">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="G45">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="H45" t="s">
-        <v>234</v>
-      </c>
-      <c r="I45" t="s">
-        <v>235</v>
-      </c>
-      <c r="J45" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>-0.158</v>
@@ -6951,23 +5655,11 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="F46">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="G46">
         <v>0.28499999999999998</v>
       </c>
-      <c r="H46" t="s">
-        <v>170</v>
-      </c>
-      <c r="I46" t="s">
-        <v>171</v>
-      </c>
-      <c r="J46" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="49" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="50" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="51" hidden="1" x14ac:dyDescent="0.2"/>
@@ -6976,8 +5668,8 @@
     <row r="54" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="55" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AC2:AD117">
-    <sortCondition ref="AC1:AC117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y2:Z117">
+    <sortCondition ref="Y1:Y117"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
